--- a/exportdata/every_buzz.xlsx
+++ b/exportdata/every_buzz.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Round</t>
   </si>
@@ -141,6 +141,33 @@
   </si>
   <si>
     <t>87/150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSWER: ​invasion of Earth​ </t>
+  </si>
+  <si>
+    <t>0.423611111111111</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>T1 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSWER: ​x-ray​s </t>
+  </si>
+  <si>
+    <t>0.580645161290323</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSWER: ​Aristotle​ of Stagira </t>
+  </si>
+  <si>
+    <t>0.577586206896552</t>
   </si>
 </sst>
 </file>
@@ -191,39 +218,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -234,13 +261,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -249,10 +276,10 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -263,21 +290,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -285,28 +316,24 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4"/>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -317,42 +344,42 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -361,10 +388,10 @@
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -372,26 +399,28 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7"/>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -402,7 +431,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -413,14 +442,124 @@
       <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>41</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/exportdata/every_buzz.xlsx
+++ b/exportdata/every_buzz.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Round</t>
   </si>
@@ -39,6 +39,120 @@
   </si>
   <si>
     <t>cDepth</t>
+  </si>
+  <si>
+    <t>team 0</t>
+  </si>
+  <si>
+    <t>T1 1</t>
+  </si>
+  <si>
+    <t>New category</t>
+  </si>
+  <si>
+    <t>new subcategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlottesville rally </t>
+  </si>
+  <si>
+    <t>T1 2</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>Star Wars!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Wars: Episode V - The Empire Strikes Back </t>
+  </si>
+  <si>
+    <t>team 1</t>
+  </si>
+  <si>
+    <t>T2 1</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-orbitals </t>
+  </si>
+  <si>
+    <t>T2 4</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">assassination of John F. Kennedy </t>
+  </si>
+  <si>
+    <t>goodhuman</t>
+  </si>
+  <si>
+    <t>T1 0</t>
+  </si>
+  <si>
+    <t>Short Fiction/Other</t>
+  </si>
+  <si>
+    <t>lit other</t>
+  </si>
+  <si>
+    <t>LOL</t>
+  </si>
+  <si>
+    <t>bad human</t>
+  </si>
+  <si>
+    <t>T2 0</t>
+  </si>
+  <si>
+    <t>LITAF</t>
+  </si>
+  <si>
+    <t>Long Fiction</t>
+  </si>
+  <si>
+    <t>BARBAR</t>
+  </si>
+  <si>
+    <t>Brothers K</t>
+  </si>
+  <si>
+    <t>good sci</t>
+  </si>
+  <si>
+    <t>T2 2</t>
+  </si>
+  <si>
+    <t>Science ans</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Mitochondira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSWER: ​invasion of Earth​ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSWER: ​x-ray​s </t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSWER: ​Aristotle​ of Stagira </t>
   </si>
 </sst>
 </file>
@@ -92,20 +206,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.44921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.9453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.44140625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.51953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.53515625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="9.6484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.65234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.82421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.3125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.3984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.3828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.39453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="43.06640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -137,6 +251,431 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.31932773109243695</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.5675675675675675</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.6756756756756757</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.489655172413793</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.783582089552239</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0.962686567164179</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0.427350427350427</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0.579710144927536</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0.534722222222222</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0.423611111111111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>0.580645161290323</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0.577586206896552</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/exportdata/every_buzz.xlsx
+++ b/exportdata/every_buzz.xlsx
@@ -212,14 +212,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.82421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.3125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.3984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.3828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.39453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="43.06640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.9453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.44140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.7265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.453125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="45.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
